--- a/bots/crawl_ch/output/bread_coop_2023-01-23.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O396"/>
+  <dimension ref="A1:O395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
         <v>4.5</v>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E48" t="n">
         <v>4.5</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6888,7 +6888,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E91" t="n">
         <v>4.5</v>
@@ -6936,7 +6936,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7674,12 +7674,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterpastetli 4 Stück 2x  140g</t>
+          <t>Betty Bossi Butterpastetli 2x  140g</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-butterpastetli-4-stueck/p/5836746</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-butterpastetli/p/5836746</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -7725,17 +7725,13 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterpastetli 4 Stück 2x  140g 20% Aktion 4.30 Schweizer Franken statt 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Butterpastetli 2x  140g 20% Aktion 4.30 Schweizer Franken statt 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7796,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7865,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7934,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8003,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8072,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8141,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8214,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8283,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8360,7 +8356,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8429,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8502,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8571,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8640,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8709,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8786,7 +8782,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8859,7 +8855,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8928,7 +8924,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9001,7 +8997,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9074,7 +9070,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9147,7 +9143,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9216,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9289,7 +9285,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9358,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9435,7 +9431,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9504,7 +9500,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9577,7 +9573,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9589,12 +9585,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Madeleines Nature 6 Stück 2x  220g</t>
+          <t>Madeleines Nature 2x  220g</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-nature-6-stueck/p/3041028</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-nature/p/3041028</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -9640,13 +9636,13 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Madeleines Nature 6 Stück 2x  220g 21% Aktion 4.40 Schweizer Franken statt 5.60 Schweizer Franken</t>
+          <t>Madeleines Nature 2x  220g 21% Aktion 4.40 Schweizer Franken statt 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9719,7 +9715,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9788,7 +9784,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9861,7 +9857,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9930,7 +9926,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10003,7 +9999,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10072,7 +10068,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10145,7 +10141,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10214,7 +10210,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10283,7 +10279,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10352,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10421,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10494,7 +10490,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10563,7 +10559,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10632,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10705,7 +10701,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10778,7 +10774,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10847,7 +10843,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10912,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10981,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11054,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11123,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11196,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11265,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11338,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11411,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11480,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11549,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11618,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11691,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11760,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11829,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11902,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12044,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12117,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12190,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12259,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12328,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12397,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12470,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12543,7 +12539,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12555,12 +12551,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber Mini 12 Stück 2x  228g</t>
+          <t>Appenzeller Bärli-Biber Mini 2x  228g</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-mini-12-stueck/p/3664904</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-mini/p/3664904</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -12606,7 +12602,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber Mini 12 Stück 2x  228g 20% Aktion 7.40 Schweizer Franken statt 9.30 Schweizer Franken</t>
+          <t>Appenzeller Bärli-Biber Mini 2x  228g 20% Aktion 7.40 Schweizer Franken statt 9.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -12616,7 +12612,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12685,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12762,7 +12758,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12783,7 +12779,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E174" t="n">
         <v>4.5</v>
@@ -12831,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12904,7 +12900,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12977,7 +12973,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13050,7 +13046,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13119,7 +13115,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13188,7 +13184,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13257,7 +13253,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13330,7 +13326,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13395,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13472,7 +13468,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13541,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13618,7 +13614,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13691,7 +13687,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13756,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13829,7 +13825,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13902,7 +13898,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13971,7 +13967,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14040,7 +14036,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14109,7 +14105,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14178,7 +14174,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14251,7 +14247,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14324,7 +14320,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14389,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14458,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14527,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14673,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14746,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14823,7 +14819,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14896,7 +14892,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14965,7 +14961,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15038,7 +15034,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15103,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15180,7 +15176,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15253,7 +15249,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15322,7 +15318,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15391,7 +15387,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15460,7 +15456,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15533,7 +15529,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15606,7 +15602,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15671,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15744,7 +15740,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15817,7 +15813,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15890,7 +15886,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15963,7 +15959,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16032,7 +16028,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16101,7 +16097,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16170,7 +16166,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16239,7 +16235,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16304,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16381,7 +16377,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16454,7 +16450,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16523,7 +16519,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16592,7 +16588,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16665,7 +16661,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16734,7 +16730,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16803,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16876,7 +16872,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16945,7 +16941,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17014,7 +17010,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17083,7 +17079,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17156,7 +17152,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17221,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17294,7 +17290,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17359,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17436,7 +17432,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17509,7 +17505,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17578,7 +17574,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17651,7 +17647,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17720,7 +17716,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17791,7 +17787,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17864,7 +17860,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17929,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18002,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18075,7 +18071,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18144,7 +18140,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18213,7 +18209,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18282,7 +18278,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18351,7 +18347,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18424,7 +18420,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18491,7 +18487,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18560,7 +18556,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18629,7 +18625,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18698,7 +18694,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18767,7 +18763,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18832,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18901,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18974,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19051,7 +19047,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19124,7 +19120,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19197,7 +19193,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19270,7 +19266,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19339,7 +19335,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19412,7 +19408,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19485,7 +19481,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19554,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19579,7 +19575,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E270" t="n">
         <v>4.5</v>
@@ -19627,7 +19623,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19700,7 +19696,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19773,7 +19769,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19842,7 +19838,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19911,7 +19907,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19980,7 +19976,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20049,7 +20045,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20122,7 +20118,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20191,7 +20187,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20264,7 +20260,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20333,7 +20329,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20404,7 +20400,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20473,7 +20469,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20542,7 +20538,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20611,7 +20607,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20684,7 +20680,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20757,7 +20753,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20824,7 +20820,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20897,7 +20893,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20970,7 +20966,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21039,7 +21035,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21108,7 +21104,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21181,7 +21177,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21244,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21321,7 +21317,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21394,7 +21390,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21467,7 +21463,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21536,7 +21532,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21605,7 +21601,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21674,7 +21670,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21739,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21816,7 +21812,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21885,7 +21881,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21954,7 +21950,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22023,7 +22019,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22092,7 +22088,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22161,7 +22157,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22182,7 +22178,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E307" t="n">
         <v>3</v>
@@ -22230,7 +22226,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22299,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22372,7 +22368,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22445,7 +22441,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22514,7 +22510,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22577,13 +22573,13 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
+          <t>Werners Markt Magenbrot - Online kein Bestand 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22648,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22717,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22790,7 +22786,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22859,7 +22855,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22932,7 +22928,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23001,7 +22997,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23070,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23139,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23216,7 +23212,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23289,7 +23285,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23356,7 +23352,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23425,7 +23421,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23494,7 +23490,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23559,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23636,7 +23632,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23709,7 +23705,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23778,7 +23774,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23847,7 +23843,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23916,7 +23912,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23985,7 +23981,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24054,7 +24050,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24123,7 +24119,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24192,7 +24188,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24261,7 +24257,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24330,7 +24326,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24399,7 +24395,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24468,45 +24464,43 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
-        </is>
-      </c>
-      <c r="D340" t="n">
-        <v>39</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr"/>
       <c r="E340" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24516,7 +24510,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24526,35 +24520,35 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
         </is>
       </c>
       <c r="D341" t="inlineStr"/>
@@ -24563,7 +24557,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -24593,44 +24587,50 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N341" t="inlineStr"/>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>2</v>
+      </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -24640,7 +24640,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24650,7 +24650,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24660,60 +24660,56 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N342" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D343" t="n">
         <v>2</v>
       </c>
       <c r="E343" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24723,7 +24719,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24733,56 +24729,54 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
       <c r="E344" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24792,7 +24786,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24802,54 +24796,56 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>23</v>
+      </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24859,7 +24855,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24869,46 +24865,50 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N345" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E346" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -24918,7 +24918,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24928,7 +24928,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24938,60 +24938,56 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25001,7 +24997,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25011,56 +25007,56 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E348" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25070,7 +25066,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25080,56 +25076,56 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E349" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25139,7 +25135,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25149,56 +25145,60 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N349" t="inlineStr"/>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
         </is>
       </c>
       <c r="D350" t="n">
+        <v>1</v>
+      </c>
+      <c r="E350" t="n">
         <v>5</v>
       </c>
-      <c r="E350" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25208,7 +25208,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25218,46 +25218,42 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N350" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>6828661</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Birnenweggli</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E351" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -25266,12 +25262,12 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25281,7 +25277,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25296,37 +25292,37 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+          <t>Birnenweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6828661</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Birnenweggli</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D352" t="n">
         <v>2</v>
       </c>
       <c r="E352" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -25335,12 +25331,12 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25350,7 +25346,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25360,42 +25356,42 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Birnenweggli 4.95 Schweizer Franken</t>
+          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D353" t="n">
         <v>2</v>
       </c>
       <c r="E353" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -25404,12 +25400,12 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25419,7 +25415,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25429,42 +25425,46 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N353" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E354" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -25473,12 +25473,12 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>2.66/100g</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25488,7 +25488,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -25498,60 +25498,54 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N354" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
-        </is>
-      </c>
-      <c r="D355" t="n">
-        <v>17</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
       <c r="E355" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2.66/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25561,7 +25555,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -25571,54 +25565,56 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>8</v>
+      </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25628,7 +25624,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25638,56 +25634,56 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E357" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25697,7 +25693,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25707,56 +25703,56 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25766,7 +25762,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25776,56 +25772,56 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E359" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25835,7 +25831,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25845,56 +25841,56 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E360" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25904,7 +25900,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25914,56 +25910,60 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N360" t="inlineStr"/>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E361" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25973,7 +25973,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25983,60 +25983,60 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E362" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26046,7 +26046,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26061,34 +26061,34 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -26099,17 +26099,17 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26119,7 +26119,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26129,46 +26129,42 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N363" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E364" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -26177,12 +26173,12 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26192,7 +26188,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26207,51 +26203,51 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E365" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26261,7 +26257,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26271,56 +26267,58 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N365" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
-        </is>
-      </c>
-      <c r="D366" t="n">
-        <v>18</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
       <c r="E366" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26330,7 +26328,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26345,53 +26343,51 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>34</v>
+      </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26401,7 +26397,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26411,56 +26407,60 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E368" t="n">
         <v>3.5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26470,7 +26470,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26480,60 +26480,58 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+          <t>Old El Paso Fajita Kit Gluten Free 20% ab 2 Aktion 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>['chilled', 'gluten_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
-        </is>
-      </c>
-      <c r="D369" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
       <c r="E369" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26543,7 +26541,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26553,58 +26551,60 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>26</v>
+      </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26614,7 +26614,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26624,60 +26624,60 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E371" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26687,7 +26687,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26697,60 +26697,60 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E372" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26760,7 +26760,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26775,55 +26775,51 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N372" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E373" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26833,7 +26829,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26843,56 +26839,60 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr"/>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26902,7 +26902,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26912,60 +26912,60 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E375" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26975,7 +26975,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26990,55 +26990,51 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N375" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E376" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27048,7 +27044,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27063,51 +27059,55 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N376" t="inlineStr"/>
+          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E377" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27117,7 +27117,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27127,60 +27127,58 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 20% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
-        </is>
-      </c>
-      <c r="D378" t="n">
-        <v>14</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr"/>
       <c r="E378" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27190,7 +27188,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27200,44 +27198,46 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>1</v>
+      </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -27246,12 +27246,12 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27261,7 +27261,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
@@ -27286,45 +27286,45 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E380" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27334,7 +27334,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27344,60 +27344,56 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N380" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D381" t="n">
         <v>3</v>
       </c>
       <c r="E381" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27407,7 +27403,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27417,56 +27413,54 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
-        </is>
-      </c>
-      <c r="D382" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
       <c r="E382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27476,7 +27470,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27486,54 +27480,56 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>1</v>
+      </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27543,7 +27539,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27553,56 +27549,54 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
-        </is>
-      </c>
-      <c r="D384" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
       <c r="E384" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27612,7 +27606,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27622,40 +27616,42 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>1</v>
+      </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -27694,30 +27690,30 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D386" t="n">
@@ -27728,17 +27724,17 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27748,7 +27744,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27758,56 +27754,58 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N386" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>7016451</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Schenkeli 7x30g</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
-        </is>
-      </c>
-      <c r="D387" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27817,7 +27815,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27827,39 +27825,35 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N387" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>7016451</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
         </is>
       </c>
       <c r="D388" t="inlineStr"/>
@@ -27868,17 +27862,17 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27888,7 +27882,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27898,54 +27892,56 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>2</v>
+      </c>
       <c r="E389" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27955,7 +27951,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27970,51 +27966,51 @@
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28024,7 +28020,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28034,56 +28030,56 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28093,7 +28089,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28103,51 +28099,49 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
-        </is>
-      </c>
-      <c r="D392" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
       <c r="E392" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -28172,54 +28166,56 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3351706</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Motta Panettone</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>1</v>
+      </c>
       <c r="E393" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Motta</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28229,7 +28225,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28239,56 +28235,56 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+          <t>Motta Panettone 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>3351706</t>
+          <t>6102496</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Motta Panettone</t>
+          <t>Fairtrade Madeleines Schokolade 2x220g</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fairtrade-madeleines-schokolade-2x220g/p/6102496</t>
         </is>
       </c>
       <c r="D394" t="n">
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Motta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>1.07/100g</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28298,7 +28294,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -28308,42 +28304,42 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Motta Panettone 2.70 Schweizer Franken</t>
+          <t>Fairtrade Madeleines Schokolade 2x220g 20% Aktion 4.70 Schweizer Franken statt 5.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>6102496</t>
+          <t>5995949</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Fairtrade Madeleines Schokolade 2x220g</t>
+          <t>Madeleines Marmor 2x220g</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fairtrade-madeleines-schokolade-2x220g/p/6102496</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-marmor-2x220g/p/5995949</t>
         </is>
       </c>
       <c r="D395" t="n">
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -28382,82 +28378,13 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Fairtrade Madeleines Schokolade 2x220g 20% Aktion 4.70 Schweizer Franken statt 5.90 Schweizer Franken</t>
+          <t>Madeleines Marmor 2x220g 20% Aktion 4.70 Schweizer Franken statt 5.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-23 06:49:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>5995949</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>Madeleines Marmor 2x220g</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-marmor-2x220g/p/5995949</t>
-        </is>
-      </c>
-      <c r="D396" t="n">
-        <v>1</v>
-      </c>
-      <c r="E396" t="n">
-        <v>5</v>
-      </c>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>1.07/100g</t>
-        </is>
-      </c>
-      <c r="I396" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J396" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
-        </is>
-      </c>
-      <c r="M396" t="inlineStr">
-        <is>
-          <t>Madeleines Marmor 2x220g 20% Aktion 4.70 Schweizer Franken statt 5.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N396" t="inlineStr"/>
-      <c r="O396" t="inlineStr">
-        <is>
-          <t>2023-01-23 06:49:22</t>
+          <t>2023-01-23 12:56:47</t>
         </is>
       </c>
     </row>
